--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_CtyThinhVuongDecor.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_CtyThinhVuongDecor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="35" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
   </si>
 </sst>
 </file>
@@ -970,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1200,16 +1218,32 @@
         <v>62</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="55"/>
       <c r="U6" s="72" t="s">
@@ -1657,7 +1691,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1966,7 +2000,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2158,7 +2192,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2765,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2978,23 +3012,49 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44408</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="39">
+        <v>869627031843907</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
       <c r="U6" s="72" t="s">
@@ -3442,7 +3502,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3751,7 +3811,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -3943,7 +4003,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
